--- a/Results/Results_TAIEX_horizon5.xlsx
+++ b/Results/Results_TAIEX_horizon5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,12 +585,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.52 (0.28)</t>
+          <t>0.50 (0.23)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.94 (1.14)</t>
+          <t>1.88 (0.94)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>45.48 (5.88)</t>
+          <t>47.14 (7.66)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,26 +615,26 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[1.23129523 0.47807891 0.29997747 0.50452452 0.50543262 0.78557481
- 0.30646692 0.39340646 0.37731833 0.27939197]</t>
+          <t>[1.08227253 0.55047936 0.34852497 0.50914523 0.50543262 0.67343206
+ 0.30330035 0.37708406 0.35709923 0.28831501]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[5.10384268 1.67868851 1.30677952 1.68399791 1.6513453  2.77036538
- 1.21527588 1.55741787 1.23122889 1.21545154]</t>
+          <t>[4.4861286  1.93290974 1.51826502 1.69942088 1.6513453  2.37488884
+ 1.20271906 1.49280077 1.16525187 1.25426983]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.16536338 0.04887014 0.01419903 0.05169864 0.06171442 0.07481421
- 0.02786386 0.03240438 0.02063436 0.01571901]</t>
+          <t>[0.14338402 0.05909307 0.01657366 0.0546692  0.06171442 0.06373048
+ 0.02855041 0.03192219 0.01992206 0.01564245]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.71428571 42.85714286 40.47619048 52.38095238 45.23809524 40.47619048
- 47.61904762 54.76190476 52.38095238 42.85714286]</t>
+          <t>[33.33333333 52.38095238 50.         47.61904762 45.23809524 47.61904762
+ 47.61904762 64.28571429 42.85714286 40.47619048]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.52 $\pm$ 0.28 &amp; 1.94 $\pm$ 1.14 &amp; 0.05 $\pm$ 4.26 &amp; 45.48 $\pm$ 5.88 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.50 $\pm$ 0.23 &amp; 1.88 $\pm$ 0.94 &amp; 0.05 $\pm$ 3.62 &amp; 47.14 $\pm$ 7.66 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.45 (0.23)</t>
+          <t>0.46 (0.24)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70 (0.94)</t>
+          <t>1.72 (0.99)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>47.38 (5.68)</t>
+          <t>47.62 (5.22)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 2, n\_estimators: 100 \\</t>
+          <t>max\_depth: 4, max\_features: 10, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[1.02953973 0.44041072 0.27176359 0.52417181 0.50129483 0.6507657
- 0.27574397 0.29645232 0.24531364 0.29183111]</t>
+          <t>[1.06805484 0.44460885 0.27002507 0.53680609 0.49249823 0.64951536
+ 0.27828281 0.29325772 0.24310194 0.2877374 ]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[4.26754584 1.5464234  1.18387259 1.74957646 1.63782636 2.29495492
- 1.09344589 1.17359576 0.80048388 1.26956608]</t>
+          <t>[4.42719483 1.56116442 1.17629912 1.79174704 1.60908618 2.29054553
+ 1.10351352 1.16094895 0.79326687 1.25175703]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.13760014 0.04944317 0.01238246 0.05551154 0.06111783 0.06127473
- 0.02596589 0.02519939 0.01269349 0.01657752]</t>
+          <t>[0.14265512 0.04988383 0.01226775 0.05687045 0.06001892 0.06119375
+ 0.02614616 0.0248243  0.01257216 0.01630078]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[38.0952381  47.61904762 40.47619048 52.38095238 45.23809524 52.38095238
- 40.47619048 52.38095238 50.         54.76190476]</t>
+          <t>[45.23809524 50.         38.0952381  52.38095238 45.23809524 52.38095238
+ 45.23809524 47.61904762 42.85714286 57.14285714]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.45 $\pm$ 0.23 &amp; 1.70 $\pm$ 0.94 &amp; 0.05 $\pm$ 3.59 &amp; 47.38 $\pm$ 5.68 &amp; "-"</t>
+          <t>Random Forest &amp; 0.46 $\pm$ 0.24 &amp; 1.72 $\pm$ 0.99 &amp; 0.05 $\pm$ 3.73 &amp; 47.62 $\pm$ 5.22 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.23 (0.45)</t>
+          <t>1.23 (0.46)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -837,20 +837,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.28682293 0.77012187 1.83797489 0.91331501 1.28290406 1.84189277
- 1.17374628 1.40373594 1.28653017 1.52187689]</t>
+          <t>[0.28682293 0.77012187 1.83797488 0.91331502 1.28290409 1.84337468
+ 1.17379822 1.40392887 1.28653003 1.52262831]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[1.18890991 2.7041451  8.00669452 3.04845552 4.1914936  6.49551883
- 4.65441932 5.55711123 4.19808157 6.62068995]</t>
+          <t>[1.18890991 2.7041451  8.00669451 3.04845554 4.19149371 6.50074484
+ 4.65462527 5.557875   4.1980811  6.62395887]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.03114629 0.09467975 0.10665585 0.11861664 0.19155493 0.19493907
- 0.1515885  0.13387887 0.08592937 0.10060371]</t>
+          <t>[0.03114629 0.09467975 0.10665585 0.11861664 0.19155493 0.19509873
+ 0.15159551 0.13389778 0.08592936 0.10065414]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>LS-SVM &amp; 1.23 $\pm$ 0.45 &amp; 4.67 $\pm$ 1.95 &amp; 0.12 $\pm$ 4.71 &amp; 47.62 $\pm$ 9.93 &amp; "-"</t>
+          <t>LS-SVM &amp; 1.23 $\pm$ 0.46 &amp; 4.67 $\pm$ 1.95 &amp; 0.12 $\pm$ 4.71 &amp; 47.62 $\pm$ 9.93 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.85 (0.23)</t>
+          <t>0.49 (0.26)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.22 (0.98)</t>
+          <t>1.86 (1.06)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.08 (0.02)</t>
+          <t>0.05 (0.04)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>45.95 (6.39)</t>
+          <t>45.24 (3.37)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,31 +906,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.01, max\_depth: 4, max\_features: 2, n\_estimators: 100 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 8, max\_features: 2, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.68447971 0.55968968 0.69713357 0.68621115 0.81411952 1.26448162
- 0.63648997 0.98416302 0.99886207 1.20891853]</t>
+          <t>[1.14016487 0.470008   0.33234497 0.50306674 0.50077185 0.76446842
+ 0.29808355 0.37552252 0.28994288 0.25846252]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[2.83723732 1.96525013 3.03689433 2.29043007 2.6598846  4.45925206
- 2.52396216 3.89610553 3.25939068 5.25921302]</t>
+          <t>[4.72609818 1.65034896 1.44778076 1.67913212 1.63611768 2.69593272
+ 1.18203216 1.48661892 0.94611372 1.12440121]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.08648222 0.06570164 0.03791788 0.08276012 0.11516777 0.13158883
- 0.07902218 0.09231003 0.06622543 0.07970515]</t>
+          <t>[0.15094064 0.0515361  0.01567755 0.05213542 0.06105135 0.07432149
+ 0.02804737 0.03166372 0.01587597 0.01449395]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[40.47619048 45.23809524 38.0952381  52.38095238 45.23809524 45.23809524
- 42.85714286 54.76190476 57.14285714 38.0952381 ]</t>
+          <t>[40.47619048 42.85714286 45.23809524 50.         45.23809524 47.61904762
+ 40.47619048 42.85714286 47.61904762 50.        ]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.85 $\pm$ 0.23 &amp; 3.22 $\pm$ 0.98 &amp; 0.08 $\pm$ 2.48 &amp; 45.95 $\pm$ 6.39 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.49 $\pm$ 0.26 &amp; 1.86 $\pm$ 1.06 &amp; 0.05 $\pm$ 3.92 &amp; 45.24 $\pm$ 3.37 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.23 (0.06)</t>
+          <t>0.24 (0.06)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.89 (0.29)</t>
+          <t>0.90 (0.29)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1133,20 +1133,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.27635006 0.23195364 0.34151959 0.13411008 0.16572241 0.19333917
- 0.27656711 0.22317798 0.29370788 0.2036143 ]</t>
+          <t>[0.28118699 0.23119929 0.34100325 0.13417399 0.16567081 0.20228149
+ 0.27763703 0.2226129  0.29366628 0.20284562]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[1.1454988  0.81446369 1.48774775 0.44763154 0.54144691 0.68181938
- 1.09671    0.88351722 0.95839933 0.88579253]</t>
+          <t>[1.16554837 0.81181492 1.48549847 0.44784486 0.5412783  0.71335488
+ 1.10095274 0.88128017 0.95826355 0.8824485 ]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.03375975 0.02692495 0.01577381 0.01595599 0.01969815 0.01745528
- 0.02774312 0.01830459 0.0147476  0.01118341]</t>
+          <t>[0.03440542 0.02681597 0.01570466 0.01597097 0.01976647 0.01806284
+ 0.02781667 0.01824907 0.01474258 0.01108511]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.23 $\pm$ 0.06 &amp; 0.89 $\pm$ 0.29 &amp; 0.02 $\pm$ 0.67 &amp; 48.33 $\pm$ 5.54 &amp; "-"</t>
+          <t>MLP &amp; 0.24 $\pm$ 0.06 &amp; 0.90 $\pm$ 0.29 &amp; 0.02 $\pm$ 0.68 &amp; 48.33 $\pm$ 5.54 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.27 (0.09)</t>
+          <t>0.27 (0.11)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.02 (0.43)</t>
+          <t>1.04 (0.51)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1207,20 +1207,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.3055851  0.15421317 0.49295134 0.17615893 0.260421   0.24777049
- 0.28131984 0.22928583 0.29963414 0.20350319]</t>
+          <t>[0.30707411 0.15285106 0.55112788 0.16931215 0.32343016 0.18263794
+ 0.28114408 0.22719613 0.29974865 0.20679314]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[1.26668102 0.54149193 2.14742367 0.58798185 0.85084534 0.87377391
- 1.11555667 0.90769696 0.97773732 0.88530912]</t>
+          <t>[1.27285308 0.53670915 2.40085576 0.56512872 1.05670836 0.644081
+ 1.1148597  0.89942425 0.97811096 0.89962155]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.03705398 0.01574169 0.02344751 0.02088522 0.02895976 0.02254227
- 0.028397   0.01856707 0.01540011 0.0109968 ]</t>
+          <t>[0.03656833 0.01552278 0.02665693 0.01998868 0.03734363 0.01664697
+ 0.0284002  0.01839643 0.01540025 0.01131482]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.27 $\pm$ 0.09 &amp; 1.02 $\pm$ 0.43 &amp; 0.02 $\pm$ 0.73 &amp; 48.33 $\pm$ 4.52 &amp; "-"</t>
+          <t>CNN &amp; 0.27 $\pm$ 0.11 &amp; 1.04 $\pm$ 0.51 &amp; 0.02 $\pm$ 0.87 &amp; 48.33 $\pm$ 4.52 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.73 (0.82)</t>
+          <t>1.74 (0.82)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.58 (3.39)</t>
+          <t>6.59 (3.40)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1281,20 +1281,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.23843028 0.7952892  1.95285126 1.0019222  1.41376352 2.29619057
- 1.74771898 2.28914608 2.6678262  2.93320176]</t>
+          <t>[0.2384273  0.79595469 1.96067654 0.99899951 1.40348889 2.30096711
+ 1.74713067 2.30263564 2.67062674 2.93383997]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.9883175   2.79251568  8.50712575  3.34420788  4.61903655  8.09762071
-  6.93047309  9.06227375  8.70539395 12.76044044]</t>
+          <t>[ 0.98830515  2.79485244  8.54121468  3.33445254  4.58546737  8.11446542
+  6.92814018  9.11567626  8.71453242 12.76321688]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.02708167 0.09777571 0.11345875 0.13072586 0.21226422 0.24439967
- 0.22878163 0.22083555 0.18163685 0.19536206]</t>
+          <t>[0.02712375 0.09787058 0.11392033 0.13030269 0.21063037 0.24491764
+ 0.22870263 0.2221561  0.18183047 0.19540487]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 1.73 $\pm$ 0.82 &amp; 6.58 $\pm$ 3.39 &amp; 0.17 $\pm$ 6.66 &amp; 44.05 $\pm$ 8.40 &amp; "-"</t>
+          <t>RNN &amp; 1.74 $\pm$ 0.82 &amp; 6.59 $\pm$ 3.40 &amp; 0.17 $\pm$ 6.66 &amp; 44.05 $\pm$ 8.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.43 (0.27)</t>
+          <t>0.41 (0.27)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.61 (1.07)</t>
+          <t>1.54 (0.95)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>43.33 (7.05)</t>
+          <t>45.48 (7.18)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.23860087 0.30704244 0.88578866 0.36002388 0.31302741 1.01795984
- 0.3715677  0.26250117 0.27669038 0.22755246]</t>
+          <t>[0.24000857 0.33731276 0.32846023 0.31299558 0.30288833 1.18059695
+ 0.55825256 0.3727296  0.28281937 0.23234525]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.98902463 1.07812458 3.85872479 1.20168482 1.02272058 3.58988176
- 1.47342906 1.03918991 0.90286943 0.98993176]</t>
+          <t>[0.9948597  1.18441339 1.43085781 1.04471414 0.98959425 4.16342897
+ 2.21371651 1.47556232 0.92286898 1.01078205]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.02688347 0.03500166 0.04998625 0.04281875 0.04357106 0.10443556
- 0.04417527 0.02167236 0.01473947 0.01141359]</t>
+          <t>[0.02651605 0.03654277 0.01514668 0.03942978 0.04216669 0.12254231
+ 0.06689739 0.03167893 0.01609292 0.0116423 ]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[28.57142857 52.38095238 47.61904762 52.38095238 45.23809524 38.0952381
- 45.23809524 45.23809524 42.85714286 35.71428571]</t>
+          <t>[40.47619048 45.23809524 50.         45.23809524 47.61904762 33.33333333
+ 54.76190476 57.14285714 45.23809524 35.71428571]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 0.43 $\pm$ 0.27 &amp; 1.61 $\pm$ 1.07 &amp; 0.04 $\pm$ 2.51 &amp; 43.33 $\pm$ 7.05 &amp; "-"</t>
+          <t>LSTM &amp; 0.41 $\pm$ 0.27 &amp; 1.54 $\pm$ 0.95 &amp; 0.04 $\pm$ 3.13 &amp; 45.48 $\pm$ 7.18 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,17 +1399,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.59 (0.38)</t>
+          <t>0.69 (0.57)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.29 (1.71)</t>
+          <t>2.73 (2.55)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.05 (0.03)</t>
+          <t>0.06 (0.04)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1429,20 +1429,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.23919845 0.2913085  0.44142995 0.51255617 0.42862894 0.81939832
- 0.40000323 0.62600331 0.52882459 1.64409401]</t>
+          <t>[0.24253369 0.30916045 0.67635897 0.3872772  0.42432506 0.82296866
+ 0.49364004 0.87256492 0.40940827 2.29260906]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.99150167 1.02287767 1.92298317 1.71080589 1.40041295 2.88964552
- 1.58618841 2.47822252 1.72560955 7.15237662]</t>
+          <t>[1.00532656 1.0855616  2.94639481 1.29265072 1.38635137 2.90223648
+ 1.9574995  3.45431089 1.33594172 9.97364103]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.02667264 0.03395856 0.02236376 0.05634262 0.05356703 0.08197937
- 0.04741335 0.0556617  0.03117412 0.10867631]</t>
+          <t>[0.02640979 0.03526354 0.03750886 0.04558991 0.05322769 0.0823882
+ 0.05861886 0.08076196 0.02400263 0.15235151]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 0.59 $\pm$ 0.38 &amp; 2.29 $\pm$ 1.71 &amp; 0.05 $\pm$ 2.54 &amp; 44.05 $\pm$ 8.40 &amp; "-"</t>
+          <t>GRU &amp; 0.69 $\pm$ 0.57 &amp; 2.73 $\pm$ 2.55 &amp; 0.06 $\pm$ 3.64 &amp; 44.05 $\pm$ 8.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1478,17 +1478,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.86 (0.38)</t>
+          <t>0.82 (0.34)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.02 (0.01)</t>
+          <t>0.02 (0.00)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>48.33 (4.13)</t>
+          <t>48.81 (4.16)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.13889041 0.15114301 0.3919846  0.1356778  0.16841475 0.18262832
- 0.31669385 0.25585806 0.30239168 0.20493862]</t>
+          <t>[0.13014629 0.14980247 0.37482631 0.13520131 0.16544295 0.19240456
+ 0.27298259 0.22456652 0.30078049 0.20458896]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.57571472 0.53071165 1.7075864  0.45286429 0.55024327 0.64404708
- 1.25583015 1.01289113 0.98673544 0.89155375]</t>
+          <t>[0.53946948 0.52600455 1.63284046 0.45127384 0.54053385 0.67852345
+ 1.08249582 0.88901418 0.98147796 0.89003264]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.01567455 0.01533811 0.01804923 0.01614383 0.02003291 0.01667312
- 0.03286918 0.02062343 0.0154067  0.01118164]</t>
+          <t>[0.01356223 0.01524085 0.01767454 0.01618783 0.01992954 0.01723679
+ 0.02861325 0.01832961 0.01540007 0.01117843]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>[45.23809524 54.76190476 47.61904762 42.85714286 47.61904762 52.38095238
- 52.38095238 45.23809524 42.85714286 52.38095238]</t>
+ 54.76190476 45.23809524 45.23809524 52.38095238]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.22 $\pm$ 0.08 &amp; 0.86 $\pm$ 0.38 &amp; 0.02 $\pm$ 0.55 &amp; 48.33 $\pm$ 4.13 &amp; "-"</t>
+          <t>WaveNet &amp; 0.22 $\pm$ 0.08 &amp; 0.82 $\pm$ 0.34 &amp; 0.02 $\pm$ 0.44 &amp; 48.81 $\pm$ 4.16 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.26 (0.07)</t>
+          <t>0.25 (0.06)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.99 (0.34)</t>
+          <t>0.95 (0.29)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>50.48 (6.10)</t>
+          <t>49.05 (6.75)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1577,36 +1577,36 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.30182768 0.26544111 0.4228275  0.21065191 0.17487973 0.19236469
- 0.28331829 0.23167597 0.27898442 0.22760034]</t>
+          <t>[0.24544305 0.30129879 0.37503665 0.19940618 0.18385438 0.17783365
+ 0.27743087 0.23580324 0.28105924 0.21676303]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[1.25110611 0.93204895 1.84194608 0.70311224 0.57136562 0.67838284
- 1.1234814  0.91715904 0.91035513 0.99014007]</t>
+          <t>[1.01738617 1.05795678 1.63375677 0.66557636 0.60068751 0.62713848
+ 1.10013522 0.9334981  0.91712549 0.94299404]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.03778314 0.03183773 0.02022781 0.02402591 0.02061573 0.01629465
- 0.02796338 0.01872843 0.01390433 0.01314269]</t>
+          <t>[0.02951921 0.03629171 0.01698777 0.02282321 0.02219681 0.01635994
+ 0.02749754 0.01907513 0.01394629 0.01240675]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[42.85714286 50.         45.23809524 40.47619048 52.38095238 57.14285714
- 47.61904762 52.38095238 57.14285714 59.52380952]</t>
+          <t>[45.23809524 45.23809524 42.85714286 35.71428571 52.38095238 52.38095238
+ 50.         52.38095238 52.38095238 61.9047619 ]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[4. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.26 $\pm$ 0.07 &amp; 0.99 $\pm$ 0.34 &amp; 0.02 $\pm$ 0.76 &amp; 50.48 $\pm$ 6.10 &amp; 5 $\pm$ 0</t>
+          <t>eTS &amp; 0.25 $\pm$ 0.06 &amp; 0.95 $\pm$ 0.29 &amp; 0.02 $\pm$ 0.72 &amp; 49.05 $\pm$ 6.75 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,66 +1621,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.28 (0.09)</t>
+          <t>0.25 (0.06)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.08 (0.41)</t>
+          <t>0.95 (0.29)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.03 (0.01)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>48.57 (6.58)</t>
+          <t>49.05 (6.75)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>55 (38)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 250, r: 0.5 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.4889507  0.33220057 0.33814646 0.17837796 0.21438217 0.22037102
- 0.25701614 0.21361378 0.25786807 0.30129467]</t>
+          <t>[0.24544305 0.30129879 0.37503665 0.19940618 0.18385438 0.17783365
+ 0.27743087 0.23580324 0.28105924 0.21676303]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[2.02674989 1.16646285 1.47305355 0.59538851 0.70042765 0.77714844
- 1.01918182 0.84565444 0.84145029 1.31073584]</t>
+          <t>[1.01738617 1.05795678 1.63375677 0.66557636 0.60068751 0.62713848
+ 1.10013522 0.9334981  0.91712549 0.94299404]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.06465751 0.04060731 0.0156529  0.02090907 0.02645769 0.02106648
- 0.02400691 0.01757825 0.0131869  0.01758058]</t>
+          <t>[0.02951921 0.03629171 0.01698777 0.02282321 0.02219681 0.01635994
+ 0.02749754 0.01907513 0.01394629 0.01240675]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[40.47619048 47.61904762 45.23809524 40.47619048 50.         57.14285714
- 45.23809524 45.23809524 52.38095238 61.9047619 ]</t>
+          <t>[45.23809524 45.23809524 42.85714286 35.71428571 52.38095238 52.38095238
+ 50.         52.38095238 52.38095238 61.9047619 ]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[ 53.  96. 139.   1.  44.  76.  27.  54.  29.  32.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.28 $\pm$ 0.09 &amp; 1.08 $\pm$ 0.41 &amp; 0.03 $\pm$ 1.47 &amp; 48.57 $\pm$ 6.58 &amp; 55 $\pm$ 38</t>
+          <t>Simpl\_eTS &amp; 0.25 $\pm$ 0.06 &amp; 0.95 $\pm$ 0.29 &amp; 0.02 $\pm$ 0.72 &amp; 49.05 $\pm$ 6.75 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.25 (0.06)</t>
+          <t>0.24 (0.05)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.96 (0.26)</t>
+          <t>0.90 (0.25)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50.24 (6.34)</t>
+          <t>48.57 (7.91)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1725,36 +1725,36 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.20811894 0.27274762 0.34343739 0.35281381 0.16750291 0.17639489
- 0.27663164 0.22479131 0.27593535 0.23782645]</t>
+          <t>[0.21015128 0.27082869 0.34204759 0.18588818 0.1828674  0.17764835
+ 0.27511837 0.23275265 0.28058843 0.22010667]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.86267396 0.95770446 1.4961022  1.1776191  0.54726412 0.62206462
- 1.09696589 0.88990408 0.9004057  1.03462719]</t>
+          <t>[0.8710982  0.95096648 1.49004789 0.62045606 0.59746286 0.626485
+ 1.09096513 0.92142141 0.91558919 0.95754001]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.02427181 0.03249349 0.01577576 0.03907282 0.02016079 0.01667641
- 0.02784158 0.01813247 0.0136869  0.01389554]</t>
+          <t>[0.0245744  0.03210676 0.01560596 0.02123342 0.02205683 0.0164736
+ 0.02723882 0.01884495 0.01395206 0.01262979]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[45.23809524 45.23809524 45.23809524 40.47619048 52.38095238 57.14285714
- 47.61904762 50.         59.52380952 59.52380952]</t>
+          <t>[45.23809524 45.23809524 45.23809524 33.33333333 45.23809524 54.76190476
+ 45.23809524 50.         59.52380952 61.9047619 ]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[2. 2. 2. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[2. 2. 2. 2. 2. 2. 2. 2. 2. 2.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.25 $\pm$ 0.06 &amp; 0.96 $\pm$ 0.26 &amp; 0.02 $\pm$ 0.81 &amp; 50.24 $\pm$ 6.34 &amp; 3 $\pm$ 0</t>
+          <t>exTS &amp; 0.24 $\pm$ 0.05 &amp; 0.90 $\pm$ 0.25 &amp; 0.02 $\pm$ 0.59 &amp; 48.57 $\pm$ 7.91 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.001, lambda1: 0.001, r: 0.1, s: 100 \\</t>
+          <t>alpha: 0.001, beta: 0.001, lambda1: 0.001, omega: 100, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.51 (0.33)</t>
+          <t>0.54 (0.38)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.92 (1.30)</t>
+          <t>2.04 (1.43)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1858,51 +1858,51 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50.24 (4.82)</t>
+          <t>48.57 (6.14)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13 (6)</t>
+          <t>21 (9)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.1, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[1.19524618 0.4058849  0.32114466 0.60358811 0.33624823 1.09056553
- 0.34456483 0.26248321 0.24744622 0.2876913 ]</t>
+          <t>[1.13815154 0.45072288 0.32061175 0.53420017 0.3010633  1.41216562
+ 0.33316337 0.32442629 0.2919906  0.3152614 ]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[4.95441577 1.42519218 1.39898929 2.01465156 1.09858746 3.84592905
- 1.36635082 1.03911878 0.8074427  1.25155649]</t>
+          <t>[4.71775271 1.58263273 1.39666778 1.78304903 0.98363153 4.98006643
+ 1.32113903 1.28433912 0.95279566 1.37149592]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.15604046 0.0450329  0.01503898 0.0610538  0.03898888 0.09501189
- 0.03450663 0.02131799 0.01336378 0.01673499]</t>
+          <t>[0.14907235 0.05168401 0.01492347 0.0552848  0.03497315 0.12257617
+ 0.03217094 0.02726976 0.01547701 0.01867847]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[45.23809524 61.9047619  45.23809524 50.         52.38095238 47.61904762
- 50.         47.61904762 54.76190476 47.61904762]</t>
+          <t>[40.47619048 50.         47.61904762 59.52380952 50.         42.85714286
+ 52.38095238 38.0952381  52.38095238 52.38095238]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[ 7.  7.  8.  8. 10. 15. 18. 20. 20. 20.]</t>
+          <t>[ 9. 11. 13. 14. 17. 25. 28. 31. 32. 32.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.51 $\pm$ 0.33 &amp; 1.92 $\pm$ 1.30 &amp; 0.05 $\pm$ 4.27 &amp; 50.24 $\pm$ 4.82 &amp; 13 $\pm$ 6</t>
+          <t>eMG &amp; 0.54 $\pm$ 0.38 &amp; 2.04 $\pm$ 1.43 &amp; 0.05 $\pm$ 4.42 &amp; 48.57 $\pm$ 6.14 &amp; 21 $\pm$ 9</t>
         </is>
       </c>
     </row>
@@ -1917,66 +1917,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.33 (0.15)</t>
+          <t>0.25 (0.07)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.28 (0.67)</t>
+          <t>0.96 (0.33)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.03 (0.02)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>49.76 (5.05)</t>
+          <t>50.48 (4.23)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.75, omega: 100, pi: 0.5, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.77118426 0.22043788 0.29463612 0.31753517 0.26202451 0.34723211
- 0.2904701  0.21850425 0.29269483 0.3297679 ]</t>
+          <t>[0.21317327 0.3414026  0.4051906  0.19297731 0.18016547 0.17962277
+ 0.27730535 0.22995906 0.27470577 0.22017622]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[3.19663641 0.77402815 1.28351124 1.05986635 0.85608432 1.22452988
- 1.15184148 0.86501483 0.95509364 1.43460425]</t>
+          <t>[0.88362466 1.19877412 1.76511518 0.64411811 0.58863513 0.63344788
+ 1.09963747 0.91036214 0.89639345 0.95784256]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.10078351 0.02514515 0.01396548 0.03574114 0.03264171 0.02989815
- 0.02758648 0.0178018  0.01661174 0.01969825]</t>
+          <t>[0.02449137 0.03966871 0.01827485 0.0221684  0.02190311 0.01664892
+ 0.0271278  0.01865676 0.01385632 0.01255113]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[45.23809524 50.         45.23809524 45.23809524 50.         54.76190476
- 50.         50.         45.23809524 61.9047619 ]</t>
+          <t>[50.         47.61904762 45.23809524 47.61904762 45.23809524 59.52380952
+ 52.38095238 54.76190476 52.38095238 50.        ]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[2. 2. 2. 2. 3. 4. 4. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.33 $\pm$ 0.15 &amp; 1.28 $\pm$ 0.67 &amp; 0.03 $\pm$ 2.39 &amp; 49.76 $\pm$ 5.05 &amp; 3 $\pm$ 1</t>
+          <t>ePL+ &amp; 0.25 $\pm$ 0.07 &amp; 0.96 $\pm$ 0.33 &amp; 0.02 $\pm$ 0.74 &amp; 50.48 $\pm$ 4.23 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.68 (0.27)</t>
+          <t>0.67 (0.30)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.53 (0.94)</t>
+          <t>2.47 (0.99)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>54.05 (4.65)</t>
+          <t>50.24 (6.94)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30 (5)</t>
+          <t>29 (6)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2021,36 +2021,36 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.73122584 0.5531206  0.81708621 0.51044892 1.04687683 1.24390164
- 0.47383463 0.41520441 0.46796718 0.50589927]</t>
+          <t>[0.72461211 0.62982328 0.52654606 0.47498898 1.13684493 1.33046445
+ 0.46641019 0.39306185 0.47193368 0.52104339]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[3.03100471 1.94218398 3.55943908 1.7037723  3.42034739 4.38667582
- 1.87896233 1.64371161 1.5270255  2.2008365 ]</t>
+          <t>[3.00359014 2.21151174 2.29377099 1.5854144  3.71429043 4.69194353
+ 1.84952116 1.55605364 1.53996862 2.26671864]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.08660098 0.05835371 0.04044162 0.05587082 0.14042642 0.10597844
- 0.05211348 0.0359472  0.02077334 0.03113407]</t>
+          <t>[0.08891454 0.06616119 0.02418039 0.05045584 0.14975409 0.11766503
+ 0.05200662 0.03364379 0.02414314 0.03137894]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[57.14285714 54.76190476 59.52380952 59.52380952 50.         54.76190476
- 54.76190476 42.85714286 52.38095238 54.76190476]</t>
+          <t>[54.76190476 47.61904762 52.38095238 57.14285714 40.47619048 50.
+ 59.52380952 38.0952381  57.14285714 45.23809524]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[17. 22. 28. 33. 33. 33. 33. 33. 33. 33.]</t>
+          <t>[14. 20. 28. 33. 33. 33. 33. 33. 33. 33.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.68 $\pm$ 0.27 &amp; 2.53 $\pm$ 0.94 &amp; 0.06 $\pm$ 3.55 &amp; 54.05 $\pm$ 4.65 &amp; 30 $\pm$ 5</t>
+          <t>ePL-KRLS-DISCO &amp; 0.67 $\pm$ 0.30 &amp; 2.47 $\pm$ 0.99 &amp; 0.06 $\pm$ 4.04 &amp; 50.24 $\pm$ 6.94 &amp; 29 $\pm$ 6</t>
         </is>
       </c>
     </row>
@@ -2065,22 +2065,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.69 (0.22)</t>
+          <t>0.61 (0.15)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.62 (0.96)</t>
+          <t>2.33 (0.70)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.07 (0.03)</t>
+          <t>0.06 (0.02)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52.38 (6.73)</t>
+          <t>50.95 (4.67)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2095,25 +2095,25 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.73422057 0.96073929 1.06902306 0.84913766 0.70453478 0.58514431
- 0.37891666 0.57293991 0.34120169 0.71047828]</t>
+          <t>[0.7243005  0.66704087 0.82382027 0.62131312 0.70671403 0.58516977
+ 0.37886926 0.57274721 0.33648043 0.70539839]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[3.04341817 3.37346408 4.65694126 2.83424486 2.30185023 2.06353807
- 1.5025709  2.2681551  1.11337656 3.09082583]</t>
+          <t>[3.00229849 2.34219463 3.58877442 2.07381394 2.30897026 2.06362788
+ 1.50238295 2.26739222 1.0979706  3.06872655]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.09513467 0.11363558 0.06050642 0.08772895 0.09670778 0.05439216
- 0.04512446 0.05055742 0.02019422 0.04490927]</t>
+          <t>[0.09350941 0.0710318  0.04632902 0.0672669  0.09747328 0.05439615
+ 0.04508603 0.05052962 0.01971989 0.04446604]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[54.76190476 57.14285714 52.38095238 47.61904762 66.66666667 42.85714286
+          <t>[50.         54.76190476 52.38095238 42.85714286 57.14285714 50.
  50.         54.76190476 42.85714286 54.76190476]</t>
         </is>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.69 $\pm$ 0.22 &amp; 2.62 $\pm$ 0.96 &amp; 0.07 $\pm$ 2.81 &amp; 52.38 $\pm$ 6.73 &amp; 4 $\pm$ 0</t>
+          <t>NMR &amp; 0.61 $\pm$ 0.15 &amp; 2.33 $\pm$ 0.70 &amp; 0.06 $\pm$ 2.26 &amp; 50.95 $\pm$ 4.67 &amp; 4 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2139,12 +2139,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.27 (0.08)</t>
+          <t>0.25 (0.07)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.02 (0.38)</t>
+          <t>0.96 (0.34)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>51.90 (5.91)</t>
+          <t>48.33 (6.57)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2164,31 +2164,31 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.96, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.98, rules: 1 \\</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.19551822 0.36369479 0.40723502 0.21587309 0.21389848 0.18202945
- 0.27917092 0.20627549 0.24442362 0.364203  ]</t>
+          <t>[0.20048908 0.37691478 0.38062069 0.17418067 0.17960132 0.18164433
+ 0.27814772 0.21109739 0.25422704 0.28144317]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.81044269 1.27704916 1.77402121 0.72053947 0.69884736 0.64193514
- 1.10703527 0.81660361 0.79757964 1.58440882]</t>
+          <t>[0.83104741 1.3234688  1.65808228 0.58137886 0.58679194 0.640577
+ 1.10297784 0.83569255 0.82956925 1.22437498]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.02136331 0.0415333  0.01928788 0.02469874 0.02465799 0.01707917
- 0.02704272 0.01722205 0.01346719 0.02185882]</t>
+          <t>[0.02261967 0.0436778  0.01776787 0.02009238 0.02152319 0.01617659
+ 0.02726718 0.01722391 0.01344438 0.01657727]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[59.52380952 42.85714286 50.         47.61904762 50.         54.76190476
- 50.         47.61904762 64.28571429 52.38095238]</t>
+          <t>[59.52380952 42.85714286 42.85714286 40.47619048 45.23809524 50.
+ 47.61904762 52.38095238 59.52380952 42.85714286]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NTSK-RLS &amp; 0.27 $\pm$ 0.08 &amp; 1.02 $\pm$ 0.38 &amp; 0.02 $\pm$ 0.74 &amp; 51.90 $\pm$ 5.91 &amp; 1 $\pm$ 0</t>
+          <t>NTSK-RLS &amp; 0.25 $\pm$ 0.07 &amp; 0.96 $\pm$ 0.34 &amp; 0.02 $\pm$ 0.82 &amp; 48.33 $\pm$ 6.57 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.26 (0.06)</t>
+          <t>0.25 (0.07)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.98 (0.31)</t>
+          <t>0.96 (0.32)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2228,51 +2228,51 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50.71 (6.21)</t>
+          <t>49.76 (4.45)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 13 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.34774719 0.30290632 0.3647269  0.20284286 0.18604216 0.17684115
- 0.2708425  0.21911347 0.27096081 0.22594482]</t>
+          <t>[0.21872085 0.33232642 0.40125923 0.19361338 0.18053202 0.17895213
+ 0.27695202 0.23034487 0.27513146 0.21973692]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[1.44144713 1.06360135 1.58884483 0.67704726 0.6078354  0.62363837
- 1.07400941 0.86742664 0.88417326 0.98293798]</t>
+          <t>[0.90661995 1.16690476 1.74798912 0.64624118 0.58983272 0.63108285
+ 1.09823636 0.91188951 0.89778252 0.95593146]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.04432455 0.03643745 0.01624993 0.02320052 0.02263993 0.01656443
- 0.02681728 0.01782899 0.01332874 0.01295458]</t>
+          <t>[0.02538203 0.03902527 0.0180898  0.02222717 0.02190057 0.01662346
+ 0.0270722  0.01868428 0.01383338 0.01252672]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[47.61904762 45.23809524 42.85714286 40.47619048 57.14285714 59.52380952
- 50.         52.38095238 57.14285714 54.76190476]</t>
+          <t>[47.61904762 42.85714286 45.23809524 47.61904762 47.61904762 59.52380952
+ 52.38095238 52.38095238 52.38095238 50.        ]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[13. 13. 13. 13. 13. 13. 13. 12. 12. 12.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.26 $\pm$ 0.06 &amp; 0.98 $\pm$ 0.31 &amp; 0.02 $\pm$ 0.98 &amp; 50.71 $\pm$ 6.21 &amp; 13 $\pm$ 0</t>
+          <t>NTSK-wRLS &amp; 0.25 $\pm$ 0.07 &amp; 0.96 $\pm$ 0.32 &amp; 0.02 $\pm$ 0.73 &amp; 49.76 $\pm$ 4.45 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,66 +2287,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.79 (0.35)</t>
+          <t>0.81 (0.53)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.98 (1.37)</t>
+          <t>2.95 (1.77)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.07 (0.04)</t>
+          <t>0.08 (0.07)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>51.19 (8.13)</t>
+          <t>50.24 (8.14)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>13 (0)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: RMSE, fuzzy\_operator: max, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 5, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 13, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.74716786 0.99343985 1.37506376 1.20638143 1.12315001 0.55392941
- 0.33880317 0.51860099 0.35768256 0.70141063]</t>
+          <t>[0.69111264 1.01775014 1.10631173 1.39771404 1.96014046 0.60544345
+ 0.26575347 0.43169026 0.28689534 0.2966112 ]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[3.09708599 3.48828624 5.9901338  4.02665025 3.66954648 1.95345731
- 1.34350332 2.05303812 1.16715535 3.05137845]</t>
+          <t>[2.86473147 3.57364748 4.81938037 4.66527871 6.4041548  2.13512394
+ 1.05382917 1.70897585 0.93616928 1.29036114]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.0982408  0.11432884 0.0783188  0.11717443 0.13320151 0.05053199
- 0.04158321 0.04562693 0.02139156 0.04477879]</t>
+          <t>[0.08997822 0.10329896 0.04665744 0.13104888 0.25466072 0.05439162
+ 0.02505293 0.03360515 0.01358725 0.01715395]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[47.61904762 59.52380952 54.76190476 42.85714286 45.23809524 38.0952381
- 57.14285714 47.61904762 52.38095238 66.66666667]</t>
+          <t>[45.23809524 47.61904762 54.76190476 52.38095238 33.33333333 50.
+ 54.76190476 45.23809524 52.38095238 66.66666667]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[5. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[12. 13. 13. 13. 13. 13. 13. 13. 13. 13.]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.79 $\pm$ 0.35 &amp; 2.98 $\pm$ 1.37 &amp; 0.07 $\pm$ 3.69 &amp; 51.19 $\pm$ 8.13 &amp; 5 $\pm$ 0</t>
+          <t>GEN-NMR &amp; 0.81 $\pm$ 0.53 &amp; 2.95 $\pm$ 1.77 &amp; 0.08 $\pm$ 7.00 &amp; 50.24 $\pm$ 8.14 &amp; 13 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.26 (0.08)</t>
+          <t>0.26 (0.07)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.01 (0.40)</t>
+          <t>1.01 (0.38)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.02 (0.00)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>48.33 (4.40)</t>
+          <t>47.14 (6.63)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: min, lambda1: 0.95, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: prod, lambda1: 0.96, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.20052875 0.22597919 0.41316868 0.28463101 0.17401767 0.18980738
- 0.2788955  0.20613301 0.25650006 0.39791425]</t>
+          <t>[0.2410214  0.28920277 0.40723502 0.2288949  0.17385541 0.1779511
+ 0.27801361 0.21078892 0.25544714 0.37230697]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.83121184 0.79348549 1.79986977 0.9500391  0.5685491  0.66936439
- 1.1059431  0.81603957 0.83698633 1.7310644 ]</t>
+          <t>[0.99905796 1.01548377 1.77402121 0.76400358 0.56801896 0.62755266
+ 1.10244604 0.83447137 0.83355054 1.61966388]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.02172307 0.02623488 0.01944199 0.03168687 0.02073076 0.01817468
- 0.02696254 0.01718903 0.0141242  0.02410797]</t>
+          <t>[0.02823884 0.03360479 0.01928788 0.02598137 0.02061873 0.01681112
+ 0.02726058 0.01759231 0.01318375 0.02247889]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[57.14285714 42.85714286 47.61904762 42.85714286 50.         52.38095238
- 47.61904762 52.38095238 45.23809524 45.23809524]</t>
+          <t>[45.23809524 47.61904762 50.         35.71428571 45.23809524 57.14285714
+ 50.         38.0952381  57.14285714 45.23809524]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.26 $\pm$ 0.08 &amp; 1.01 $\pm$ 0.40 &amp; 0.02 $\pm$ 0.50 &amp; 48.33 $\pm$ 4.40 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.26 $\pm$ 0.07 &amp; 1.01 $\pm$ 0.38 &amp; 0.02 $\pm$ 0.59 &amp; 47.14 $\pm$ 6.63 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.25 (0.06)</t>
+          <t>0.26 (0.06)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.96 (0.29)</t>
+          <t>0.99 (0.30)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2450,51 +2450,51 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>51.67 (7.15)</t>
+          <t>49.05 (5.65)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13 (0)</t>
+          <t>15 (0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 13 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: minmax, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 15, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.30958536 0.2988543  0.36243586 0.20507334 0.1861092  0.17684115
- 0.27174723 0.21911347 0.28058386 0.21837223]</t>
+          <t>[0.35156859 0.29905734 0.36360804 0.21313756 0.19673328 0.17895398
+ 0.27174637 0.22736606 0.28387297 0.21888669]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[1.2832625  1.0493734  1.57886445 0.68449216 0.60805446 0.62363837
- 1.07759706 0.86742664 0.91557429 0.94999459]</t>
+          <t>[1.45728722 1.05008633 1.58397076 0.71140882 0.64276537 0.63108937
+ 1.07759366 0.90009699 0.92630699 0.9522327 ]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.03870828 0.03597805 0.01626361 0.02349171 0.02269706 0.01656443
- 0.02675772 0.01782899 0.01369203 0.01254151]</t>
+          <t>[0.04479729 0.03573705 0.01612914 0.02442956 0.0239025  0.01696869
+ 0.02681068 0.01836529 0.01388918 0.0125151 ]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[52.38095238 47.61904762 42.85714286 40.47619048 52.38095238 59.52380952
- 50.         52.38095238 52.38095238 66.66666667]</t>
+          <t>[52.38095238 38.0952381  42.85714286 42.85714286 52.38095238 54.76190476
+ 47.61904762 50.         54.76190476 54.76190476]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[13. 13. 13. 13. 13. 13. 13. 12. 12. 12.]</t>
+          <t>[14. 15. 15. 15. 15. 15. 15. 14. 14. 14.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.25 $\pm$ 0.06 &amp; 0.96 $\pm$ 0.29 &amp; 0.02 $\pm$ 0.86 &amp; 51.67 $\pm$ 7.15 &amp; 13 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.26 $\pm$ 0.06 &amp; 0.99 $\pm$ 0.30 &amp; 0.02 $\pm$ 0.98 &amp; 49.05 $\pm$ 5.65 &amp; 15 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.75 (0.31)</t>
+          <t>0.82 (0.51)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.79 (1.09)</t>
+          <t>3.03 (1.75)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.07 (0.04)</t>
+          <t>0.08 (0.06)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>48.81 (5.76)</t>
+          <t>47.86 (6.25)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.78151273 1.03078998 0.94057496 1.22772602 1.15519476 0.55794544
- 0.33241458 0.4988442  0.30990477 0.64706323]</t>
+          <t>[0.77084115 0.84024569 0.75761972 0.84229593 1.06750678 2.18783274
+ 0.34087458 0.50246609 0.29012883 0.59198333]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[3.23944893 3.61943454 4.09738807 4.09789407 3.77424282 1.96762001
- 1.31816975 1.97482493 1.01125145 2.81494848]</t>
+          <t>[3.19521419 2.95037237 3.3003877  2.81140859 3.48774939 7.71549188
+ 1.35171738 1.98916324 0.94672051 2.57533187]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.10221013 0.1159406  0.05282721 0.1148828  0.14172867 0.05073635
- 0.04059498 0.04343086 0.0179003  0.04077965]</t>
+          <t>[0.10095267 0.10154321 0.04223029 0.08133928 0.13014661 0.23264471
+ 0.04185839 0.04379933 0.01705623 0.03671957]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[47.61904762 57.14285714 52.38095238 40.47619048 52.38095238 45.23809524
- 54.76190476 38.0952381  50.         50.        ]</t>
+          <t>[52.38095238 45.23809524 50.         38.0952381  50.         38.0952381
+ 54.76190476 42.85714286 50.         57.14285714]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.75 $\pm$ 0.31 &amp; 2.79 $\pm$ 1.09 &amp; 0.07 $\pm$ 4.01 &amp; 48.81 $\pm$ 5.76 &amp; "-"</t>
+          <t>R-NMR &amp; 0.82 $\pm$ 0.51 &amp; 3.03 $\pm$ 1.75 &amp; 0.08 $\pm$ 6.06 &amp; 47.86 $\pm$ 6.25 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.26 (0.08)</t>
+          <t>0.26 (0.06)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.01 (0.36)</t>
+          <t>0.97 (0.29)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50.24 (6.25)</t>
+          <t>49.76 (6.77)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 13 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.41536007 0.29814787 0.36399015 0.19768595 0.18003766 0.17701094
- 0.2755704  0.22855977 0.27956768 0.21921697]</t>
+          <t>[0.33565917 0.30844061 0.34432271 0.20171684 0.17773703 0.17729655
+ 0.27557024 0.2299035  0.2792539  0.22016129]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[1.72170929 1.04689287 1.58563536 0.65983459 0.58821755 0.62423714
- 1.09275762 0.90482264 0.91225836 0.9536695 ]</t>
+          <t>[1.39134107 1.08303401 1.49995888 0.67328886 0.58070097 0.62524436
+ 1.09275697 0.9101422  0.91123448 0.95777761]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.05443158 0.03581881 0.01618051 0.02260232 0.02180223 0.01650995
- 0.02721585 0.0185468  0.01374088 0.01254738]</t>
+          <t>[0.04279057 0.03713957 0.01543631 0.02309474 0.02167227 0.01646263
+ 0.02712348 0.01859817 0.01385962 0.01261424]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[52.38095238 45.23809524 42.85714286 40.47619048 50.         52.38095238
- 52.38095238 50.         52.38095238 64.28571429]</t>
+          <t>[42.85714286 45.23809524 50.         35.71428571 54.76190476 52.38095238
+ 47.61904762 52.38095238 59.52380952 57.14285714]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.26 $\pm$ 0.08 &amp; 1.01 $\pm$ 0.36 &amp; 0.02 $\pm$ 1.21 &amp; 50.24 $\pm$ 6.25 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.26 $\pm$ 0.06 &amp; 0.97 $\pm$ 0.29 &amp; 0.02 $\pm$ 0.96 &amp; 49.76 $\pm$ 6.77 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2657,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.33 (0.12)</t>
+          <t>0.32 (0.11)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.24 (0.54)</t>
+          <t>1.23 (0.50)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>51.19 (6.14)</t>
+          <t>51.19 (5.86)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.67273089 0.35327297 0.31076483 0.32551013 0.28609083 0.31466857
- 0.27255803 0.21680675 0.25937553 0.2454213 ]</t>
+          <t>[0.64364386 0.36122233 0.29798105 0.33481223 0.28464591 0.31503109
+ 0.27415934 0.21813584 0.25848602 0.24501517]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[2.78853725 1.2404548  1.35377205 1.08648511 0.93471362 1.10969307
- 1.08081225 0.85829476 0.84636928 1.0676674 ]</t>
+          <t>[2.66796861 1.26836755 1.29808262 1.11753356 0.92999279 1.11097151
+ 1.08716216 0.86355638 0.84346671 1.06590057]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.0901072  0.04145551 0.01405676 0.03605548 0.03456723 0.02762079
- 0.02658526 0.01768385 0.01278859 0.01407443]</t>
+          <t>[0.08607934 0.04237114 0.01359963 0.037127   0.03446505 0.02770504
+ 0.02665721 0.01781362 0.0128336  0.01408522]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[50.         47.61904762 42.85714286 42.85714286 50.         59.52380952
- 50.         50.         57.14285714 61.9047619 ]</t>
+          <t>[42.85714286 47.61904762 50.         42.85714286 54.76190476 61.9047619
+ 47.61904762 52.38095238 57.14285714 54.76190476]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.33 $\pm$ 0.12 &amp; 1.24 $\pm$ 0.54 &amp; 0.03 $\pm$ 2.18 &amp; 51.19 $\pm$ 6.14 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.32 $\pm$ 0.11 &amp; 1.23 $\pm$ 0.50 &amp; 0.03 $\pm$ 2.08 &amp; 51.19 $\pm$ 5.86 &amp; "-"</t>
         </is>
       </c>
     </row>
